--- a/data/eBooks-main/current/blazor-for-web-forms-developers/Blazor-for-ASP-NET-Web-Forms-Developers.pdf.hwaifs/tables/py/gmft/df.tables-19.xlsx
+++ b/data/eBooks-main/current/blazor-for-web-forms-developers/Blazor-for-ASP-NET-Web-Forms-Developers.pdf.hwaifs/tables/py/gmft/df.tables-19.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:O1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,19 +423,26 @@
   <sheetData>
     <row r="1">
       <c r="B1" t="inlineStr"/>
-      <c r="C1" t="inlineStr"/>
-      <c r="D1" t="inlineStr"/>
-      <c r="E1" t="inlineStr"/>
-      <c r="F1" t="inlineStr"/>
-      <c r="G1" t="inlineStr"/>
-      <c r="H1" t="inlineStr"/>
-      <c r="I1" t="inlineStr"/>
-      <c r="J1" t="inlineStr"/>
-      <c r="K1" t="inlineStr"/>
-      <c r="L1" t="inlineStr"/>
-      <c r="M1" t="inlineStr"/>
-      <c r="N1" t="inlineStr"/>
-      <c r="O1" t="inlineStr"/>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>services.Configure&lt;MyConfig&gt;(Configuration);</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>In the rest of the app, you can add an input parameter to classes or an @inject directive in templates of type IOptions&lt;MyConfig&gt; to receive the strongly typed configuration IOptions&lt;MyConfig&gt;.Value property will yield the MyConfig value populated from the settings.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Razor settings. The configuration</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
